--- a/MakeMyTrip/TestData/InputData.xlsx
+++ b/MakeMyTrip/TestData/InputData.xlsx
@@ -1,48 +1,391 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SearchFlight" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>frominput</t>
+  </si>
+  <si>
+    <t>toinput</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,24 +393,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +745,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,7 +780,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,23 +954,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/MakeMyTrip/TestData/InputData.xlsx
+++ b/MakeMyTrip/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTrip\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035597BB-6D83-4469-8B46-2163BB96C158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032DC863-2412-4C57-96CA-EF9A0C25E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>frominput</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>travelclass</t>
+  </si>
+  <si>
+    <t>Economy/Premium Economy</t>
+  </si>
+  <si>
+    <t>regularfare</t>
+  </si>
+  <si>
+    <t>Regular</t>
   </si>
 </sst>
 </file>
@@ -354,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,8 +387,11 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -391,6 +403,12 @@
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMyTrip/TestData/InputData.xlsx
+++ b/MakeMyTrip/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTrip\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032DC863-2412-4C57-96CA-EF9A0C25E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D830D1-3F4D-4422-85B5-48E5478A6915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t>regularfare</t>
   </si>
   <si>
-    <t>Regular</t>
+    <t>RegularFares</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/MakeMyTrip/TestData/InputData.xlsx
+++ b/MakeMyTrip/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTrip\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D830D1-3F4D-4422-85B5-48E5478A6915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57033E6A-2185-4C02-8F9B-930DBA365F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>frominput</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>RegularFares</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -85,9 +94,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,15 +371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,32 +390,44 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
-        <v>45262</v>
-      </c>
-      <c r="G2">
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/MakeMyTrip/TestData/InputData.xlsx
+++ b/MakeMyTrip/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTrip\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57033E6A-2185-4C02-8F9B-930DBA365F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E91452A-5FF8-4A99-A27E-37E1AA67AB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,10 @@
     <t>month</t>
   </si>
   <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>Dec'</t>
   </si>
 </sst>
 </file>
@@ -94,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,7 +375,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -393,7 +394,7 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -415,8 +416,8 @@
       <c r="E2">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I2">
         <v>23</v>

--- a/MakeMyTrip/TestData/InputData.xlsx
+++ b/MakeMyTrip/TestData/InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTrip\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E91452A-5FF8-4A99-A27E-37E1AA67AB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB6A061-61EB-4E2C-8125-9089F1F33742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchFlight" sheetId="1" r:id="rId1"/>
@@ -58,19 +58,26 @@
     <t>year</t>
   </si>
   <si>
-    <t>Dec'</t>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -94,9 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +383,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -414,12 +422,12 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>23</v>
       </c>
       <c r="K2">

--- a/MakeMyTrip/TestData/InputData.xlsx
+++ b/MakeMyTrip/TestData/InputData.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTrip\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB6A061-61EB-4E2C-8125-9089F1F33742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9700475-5643-4694-A9CB-1B01B55EDA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchFlight" sheetId="1" r:id="rId1"/>
+    <sheet name="PassengerDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>frominput</t>
   </si>
@@ -59,13 +60,34 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>mobilenumber</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>akash@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +100,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -98,15 +128,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -443,4 +476,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CD5C6A-E264-4242-8029-A4D4DB21AA31}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>9876784563</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{C825BA4F-0A50-4CA1-9B8E-8CF4A3988B0A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MakeMyTrip/TestData/InputData.xlsx
+++ b/MakeMyTrip/TestData/InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTrip\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9700475-5643-4694-A9CB-1B01B55EDA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABA0D6C-F689-4155-8DA3-43C4E74A579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchFlight" sheetId="1" r:id="rId1"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CD5C6A-E264-4242-8029-A4D4DB21AA31}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/MakeMyTrip/TestData/InputData.xlsx
+++ b/MakeMyTrip/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTrip\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABA0D6C-F689-4155-8DA3-43C4E74A579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A1915-F845-41F6-B1E3-2BC3A114F42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/MakeMyTrip/TestData/InputData.xlsx
+++ b/MakeMyTrip/TestData/InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTrip\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A1915-F845-41F6-B1E3-2BC3A114F42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBAD7FE-6DB6-4BD5-9615-5D48B85F3FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchFlight" sheetId="1" r:id="rId1"/>
@@ -29,58 +29,58 @@
     <t>toinput</t>
   </si>
   <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>travelclass</t>
+  </si>
+  <si>
+    <t>Economy/Premium Economy</t>
+  </si>
+  <si>
+    <t>regularfare</t>
+  </si>
+  <si>
+    <t>RegularFares</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>mobilenumber</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>akash@gmail.com</t>
+  </si>
+  <si>
     <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>travelclass</t>
-  </si>
-  <si>
-    <t>Economy/Premium Economy</t>
-  </si>
-  <si>
-    <t>regularfare</t>
-  </si>
-  <si>
-    <t>RegularFares</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>mobilenumber</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Akash</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>akash@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -429,36 +429,36 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
       <c r="P1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2">
         <v>23</v>
@@ -467,10 +467,10 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -493,30 +493,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="E2">
         <v>9876784563</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMyTrip/TestData/InputData.xlsx
+++ b/MakeMyTrip/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTrip\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBAD7FE-6DB6-4BD5-9615-5D48B85F3FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C7FDAF-BD72-44C3-8D5D-2D1A35FDF78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>firstname</t>
   </si>
   <si>
@@ -80,7 +77,10 @@
     <t>akash@gmail.com</t>
   </si>
   <si>
-    <t>Mumbai</t>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Feb</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -449,7 +449,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -458,10 +458,10 @@
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -493,30 +493,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>9876784563</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
